--- a/seagrass/initial_datasheets/MarineGEO_Seagrass-Density_Datasheet_v0.4.0.xlsx
+++ b/seagrass/initial_datasheets/MarineGEO_Seagrass-Density_Datasheet_v0.4.0.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Dropbox (Smithsonian)\MarineGEO\Research\Modules\Seagrasses\seagrass-density\Fieldsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlonn\Documents\Repositories\protocols\seagrass\initial_datasheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC13BA20-735B-4A0E-8239-4656FC115F28}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90ACF0EE-1874-4CFF-90AA-AD2BE2BA16B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="weighed_epifauna" sheetId="1" r:id="rId1"/>
+    <sheet name="density" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Depth</t>
   </si>
@@ -73,9 +73,6 @@
     <t># fruits</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Cover</t>
   </si>
   <si>
@@ -83,13 +80,7 @@
  (mm)</t>
   </si>
   <si>
-    <t>Notes:</t>
-  </si>
-  <si>
     <t>Date (YYYY-MM-DD)</t>
-  </si>
-  <si>
-    <t>Seagrass Cover Data</t>
   </si>
   <si>
     <t>Seagrass Density Data</t>
@@ -218,6 +209,9 @@
       </rPr>
       <t xml:space="preserve"> In Decimal Degrees to 5 decimal places (e.g. -43.12345, 142.12345)						</t>
     </r>
+  </si>
+  <si>
+    <t>Seagrass Density: Cover Data</t>
   </si>
 </sst>
 </file>
@@ -523,25 +517,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,21 +550,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -610,6 +604,45 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -619,27 +652,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -648,24 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -752,7 +746,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>243651</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>27943</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1582129" cy="506274"/>
@@ -1090,10 +1084,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:F37"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A43" zoomScale="125" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -1112,22 +1106,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="20.25">
-      <c r="A1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="A1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1">
       <c r="A2" s="4"/>
@@ -1142,78 +1136,78 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="27" customHeight="1">
-      <c r="A3" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="A3" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="55" t="s">
+      <c r="I3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="27" customHeight="1">
-      <c r="A4" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="51" t="s">
+      <c r="A4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="53"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
     </row>
     <row r="5" spans="1:14" ht="27" customHeight="1">
       <c r="A5" s="39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
       <c r="E5" s="39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
-      <c r="I5" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="49" t="s">
+      <c r="I5" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="50"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="39"/>
     </row>
     <row r="6" spans="1:14" ht="12.95" customHeight="1">
       <c r="A6" s="40" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -1231,28 +1225,28 @@
     </row>
     <row r="7" spans="1:14" ht="35.1" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H7" s="68"/>
-      <c r="I7" s="58" t="s">
-        <v>17</v>
+      <c r="I7" s="64" t="s">
+        <v>14</v>
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="38"/>
-      <c r="L7" s="58" t="s">
-        <v>10</v>
+      <c r="L7" s="64" t="s">
+        <v>9</v>
       </c>
       <c r="M7" s="37"/>
       <c r="N7" s="38"/>
@@ -1260,798 +1254,742 @@
     <row r="8" spans="1:14" ht="18" customHeight="1">
       <c r="A8" s="9"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="69"/>
       <c r="H8" s="70"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="71"/>
       <c r="H9" s="72"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="27"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="34"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="8"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="27"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="29"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="9"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="34"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="9"/>
       <c r="B14" s="11"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="34"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="27"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="34"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="29"/>
     </row>
     <row r="18" spans="1:14" ht="18" customHeight="1">
       <c r="A18" s="9"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="34"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="20"/>
     </row>
     <row r="19" spans="1:14" ht="18" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="27"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="29"/>
     </row>
     <row r="20" spans="1:14" ht="18" customHeight="1">
       <c r="A20" s="9"/>
       <c r="B20" s="11"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="34"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="20"/>
     </row>
     <row r="21" spans="1:14" ht="18" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="27"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="29"/>
     </row>
     <row r="22" spans="1:14" ht="18" customHeight="1">
       <c r="A22" s="9"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="34"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="20"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="27"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="29"/>
     </row>
     <row r="24" spans="1:14" ht="18" customHeight="1">
       <c r="A24" s="9"/>
       <c r="B24" s="11"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="34"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="20"/>
     </row>
     <row r="25" spans="1:14" ht="18" customHeight="1">
       <c r="A25" s="8"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="27"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="16" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="29"/>
+    </row>
+    <row r="26" spans="1:14" ht="3" customHeight="1">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+    </row>
+    <row r="27" spans="1:14" ht="27.75" customHeight="1">
+      <c r="A27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-    </row>
-    <row r="27" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-    </row>
-    <row r="28" spans="1:14" ht="27.75" customHeight="1">
-      <c r="A28" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-    </row>
-    <row r="29" spans="1:14" ht="21" customHeight="1">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-    </row>
-    <row r="30" spans="1:14" ht="27.75" customHeight="1">
-      <c r="A30" s="55" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+    </row>
+    <row r="28" spans="1:14" ht="21" customHeight="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" ht="27.75" customHeight="1">
+      <c r="A29" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="J29" s="49"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" ht="29.25" customHeight="1">
+      <c r="A30" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="M30" s="43"/>
+      <c r="N30" s="44"/>
+    </row>
+    <row r="31" spans="1:14" ht="30" customHeight="1">
+      <c r="A31" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="J30" s="62"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A31" s="54" t="s">
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54" t="s">
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="55"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="47"/>
+    </row>
+    <row r="32" spans="1:14" ht="24.75" customHeight="1">
+      <c r="A32" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="42" t="s">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M31" s="43"/>
-      <c r="N31" s="44"/>
-    </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="52"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="45"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="47"/>
-    </row>
-    <row r="33" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A33" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="36" t="s">
+      <c r="B33" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="36" t="s">
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="38"/>
-      <c r="I34" s="35" t="s">
+      <c r="H33" s="38"/>
+      <c r="I33" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="36" t="s">
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="M34" s="37"/>
-      <c r="N34" s="38"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="38"/>
+    </row>
+    <row r="34" spans="1:14" ht="18" customHeight="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="20"/>
     </row>
     <row r="35" spans="1:14" ht="18" customHeight="1">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="34"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="29"/>
     </row>
     <row r="36" spans="1:14" ht="18" customHeight="1">
-      <c r="A36" s="8"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="27"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="20"/>
     </row>
     <row r="37" spans="1:14" ht="18" customHeight="1">
-      <c r="A37" s="9"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="34"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="29"/>
     </row>
     <row r="38" spans="1:14" ht="18" customHeight="1">
-      <c r="A38" s="8"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="27"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="20"/>
     </row>
     <row r="39" spans="1:14" ht="18" customHeight="1">
-      <c r="A39" s="9"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="34"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="29"/>
     </row>
     <row r="40" spans="1:14" ht="18" customHeight="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="27"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="20"/>
     </row>
     <row r="41" spans="1:14" ht="18" customHeight="1">
-      <c r="A41" s="9"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="34"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="29"/>
     </row>
     <row r="42" spans="1:14" ht="18" customHeight="1">
-      <c r="A42" s="8"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="27"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="20"/>
     </row>
     <row r="43" spans="1:14" ht="18" customHeight="1">
-      <c r="A43" s="9"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="34"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="25"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="29"/>
     </row>
     <row r="44" spans="1:14" ht="18" customHeight="1">
-      <c r="A44" s="8"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="27"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="20"/>
     </row>
     <row r="45" spans="1:14" ht="18" customHeight="1">
-      <c r="A45" s="9"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="34"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="25"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="29"/>
     </row>
     <row r="46" spans="1:14" ht="18" customHeight="1">
-      <c r="A46" s="8"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="27"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="20"/>
     </row>
     <row r="47" spans="1:14" ht="18" customHeight="1">
-      <c r="A47" s="9"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="29"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="34"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="29"/>
     </row>
     <row r="48" spans="1:14" ht="18" customHeight="1">
-      <c r="A48" s="8"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="27"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="20"/>
     </row>
     <row r="49" spans="1:14" ht="18" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="29"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="34"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="29"/>
     </row>
     <row r="50" spans="1:14" ht="18" customHeight="1">
-      <c r="A50" s="8"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="27"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="20"/>
     </row>
     <row r="51" spans="1:14" ht="18" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="34"/>
-    </row>
-    <row r="52" spans="1:14" ht="18" customHeight="1">
-      <c r="A52" s="8"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="27"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-    </row>
-    <row r="54" spans="1:14" ht="27.75" customHeight="1">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A28:N28"/>
+  <mergeCells count="176">
+    <mergeCell ref="A27:N27"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="L7:N7"/>
@@ -2070,9 +2008,7 @@
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A26:N27"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="A26:N26"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I9:K9"/>
@@ -2083,8 +2019,6 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="L22:N22"/>
-    <mergeCell ref="L23:N23"/>
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="L16:N16"/>
@@ -2094,6 +2028,8 @@
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="I25:K25"/>
     <mergeCell ref="L25:N25"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="L19:N19"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="L20:N20"/>
@@ -2140,68 +2076,51 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G23:H23"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
     <mergeCell ref="I34:K34"/>
     <mergeCell ref="L34:N34"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="A32:N32"/>
+    <mergeCell ref="L30:N31"/>
+    <mergeCell ref="I29:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
     <mergeCell ref="I35:K35"/>
     <mergeCell ref="L35:N35"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
     <mergeCell ref="C35:F35"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="A33:N33"/>
-    <mergeCell ref="L31:N32"/>
-    <mergeCell ref="I30:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
     <mergeCell ref="I39:K39"/>
     <mergeCell ref="L39:N39"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
     <mergeCell ref="I40:K40"/>
     <mergeCell ref="L40:N40"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:F40"/>
     <mergeCell ref="I41:K41"/>
     <mergeCell ref="L41:N41"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C41:F41"/>
     <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="L48:N48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:N50"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="L45:N45"/>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A53:N54"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="G35:H35"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="G37:H37"/>
@@ -2210,27 +2129,49 @@
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:N52"/>
-    <mergeCell ref="G50:H50"/>
     <mergeCell ref="C51:F51"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="I51:K51"/>
     <mergeCell ref="L51:N51"/>
+    <mergeCell ref="G49:H49"/>
     <mergeCell ref="C50:F50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="L48:N48"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:N50"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L45:N45"/>
     <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="L49:N49"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
     <mergeCell ref="L46:N46"/>
-    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="93" fitToWidth="0" fitToHeight="2" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup scale="98" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter differentFirst="1">
-    <oddFooter>&amp;LDatasheets available for download at https://marinegeo.github.io/seagrass&amp;C&amp;"System Font,Regular"&amp;10&amp;K000000
-&amp;RPage __ of __</oddFooter>
-    <firstFooter>&amp;LDatasheets available for download at https://marinegeo.github.io/seagrass&amp;RPage __ of __</firstFooter>
+    <oddFooter xml:space="preserve">&amp;Lhttps://doi.org/10.25573/serc.14925114.v1&amp;C&amp;"System Font,Regular"&amp;10&amp;K000000
+</oddFooter>
+    <firstFooter>&amp;Lhttps://doi.org/10.25573/serc.14925114.v1</firstFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
